--- a/biology/Zoologie/Charonia/Charonia.xlsx
+++ b/biology/Zoologie/Charonia/Charonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charonia est un genre de gastéropodes, le seul de la famille des Charoniidae (anciennement attribué aux Ranellidae).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de grands coquillages en forme de « conque ». Prédateurs carnivores, ils sont munis d'un dard venimeux qui leur permet de paralyser leurs proies (principalement des étoiles de mer), avant de les ingérer entièrement ou par étapes pour les plus grosses[2].
-L'espèce Charonia tritonis (« triton géant ») serait ainsi le principal prédateur de l'étoile géante et venimeuse Acanthaster planci[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de grands coquillages en forme de « conque ». Prédateurs carnivores, ils sont munis d'un dard venimeux qui leur permet de paralyser leurs proies (principalement des étoiles de mer), avant de les ingérer entièrement ou par étapes pour les plus grosses.
+L'espèce Charonia tritonis (« triton géant ») serait ainsi le principal prédateur de l'étoile géante et venimeuse Acanthaster planci.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (28 mai 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (28 mai 2014) :
 Charonia lampas (Linnaeus, 1758) -- Atlantique est
 Charonia lampas capax (Finlay, 1927)
 Charonia lampas lampas
